--- a/quanlyphongmay/02.BasicDesign/Database/QLPM_Database.xlsx
+++ b/quanlyphongmay/02.BasicDesign/Database/QLPM_Database.xlsx
@@ -852,7 +852,7 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Quản Lý Quản Lý</a:t>
+            <a:t>Quản Lý Phong May</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="2400" b="0" i="0" strike="noStrike">
             <a:solidFill>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2264,7 +2264,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
